--- a/data/PMID_32649862_EP_mmc4.xlsx
+++ b/data/PMID_32649862_EP_mmc4.xlsx
@@ -1,29 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michele/Durocher Lab Dropbox/Michele Olivieri/Human DDR netwok/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/probio/Documents/codes/pubmed_to_knowledge/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9EB8B35-5C56-2B42-B752-750A6CDFEAA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9D5F32-5BB1-E44F-B1A4-360373C32757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="28800" windowHeight="19380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gene-pathway_V4" sheetId="1" r:id="rId1"/>
+    <sheet name="List" sheetId="2" r:id="rId2"/>
+    <sheet name="List_1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'gene-pathway_V4'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="406">
   <si>
     <t>APEX1</t>
   </si>
@@ -655,6 +670,603 @@
       </rPr>
       <t>: Curated list of genes in different DNA repair pathways</t>
     </r>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ,</t>
+  </si>
+  <si>
+    <t>"APEX1" ,</t>
+  </si>
+  <si>
+    <t>"APEX2" ,</t>
+  </si>
+  <si>
+    <t>"APLF" ,</t>
+  </si>
+  <si>
+    <t>"APTX" ,</t>
+  </si>
+  <si>
+    <t>"FEN1" ,</t>
+  </si>
+  <si>
+    <t>"LIG1" ,</t>
+  </si>
+  <si>
+    <t>"LIG3" ,</t>
+  </si>
+  <si>
+    <t>"PARP1" ,</t>
+  </si>
+  <si>
+    <t>"PNKP" ,</t>
+  </si>
+  <si>
+    <t>"POLB" ,</t>
+  </si>
+  <si>
+    <t>"TDP1" ,</t>
+  </si>
+  <si>
+    <t>"XRCC1" ,</t>
+  </si>
+  <si>
+    <t>"BOD1L1" ,</t>
+  </si>
+  <si>
+    <t>"BRCA1" ,</t>
+  </si>
+  <si>
+    <t>"BRCA2" ,</t>
+  </si>
+  <si>
+    <t>"BRIP1" ,</t>
+  </si>
+  <si>
+    <t>"C17orf70" ,</t>
+  </si>
+  <si>
+    <t>"C19orf40" ,</t>
+  </si>
+  <si>
+    <t>"C1orf86" ,</t>
+  </si>
+  <si>
+    <t>"DCLRE1A" ,</t>
+  </si>
+  <si>
+    <t>"ERCC4" ,</t>
+  </si>
+  <si>
+    <t>"FAN1" ,</t>
+  </si>
+  <si>
+    <t>"FANCA" ,</t>
+  </si>
+  <si>
+    <t>"FANCB" ,</t>
+  </si>
+  <si>
+    <t>"FANCC" ,</t>
+  </si>
+  <si>
+    <t>"FANCD2" ,</t>
+  </si>
+  <si>
+    <t>"FANCE" ,</t>
+  </si>
+  <si>
+    <t>"FANCF" ,</t>
+  </si>
+  <si>
+    <t>"FANCG" ,</t>
+  </si>
+  <si>
+    <t>"FANCI" ,</t>
+  </si>
+  <si>
+    <t>"FANCL" ,</t>
+  </si>
+  <si>
+    <t>"FANCM" ,</t>
+  </si>
+  <si>
+    <t>"NEIL3" ,</t>
+  </si>
+  <si>
+    <t>"PALB2" ,</t>
+  </si>
+  <si>
+    <t>"RAD51" ,</t>
+  </si>
+  <si>
+    <t>"RAD51C" ,</t>
+  </si>
+  <si>
+    <t>"RFWD3" ,</t>
+  </si>
+  <si>
+    <t>"SLX4" ,</t>
+  </si>
+  <si>
+    <t>"STRA13" ,</t>
+  </si>
+  <si>
+    <t>"TRAIP" ,</t>
+  </si>
+  <si>
+    <t>"UBE2T" ,</t>
+  </si>
+  <si>
+    <t>"WDR48" ,</t>
+  </si>
+  <si>
+    <t>"USP1" ,</t>
+  </si>
+  <si>
+    <t>"ATAD5" ,</t>
+  </si>
+  <si>
+    <t>"ATR" ,</t>
+  </si>
+  <si>
+    <t>"ATRIP" ,</t>
+  </si>
+  <si>
+    <t>"CHEK1" ,</t>
+  </si>
+  <si>
+    <t>"CHTF18" ,</t>
+  </si>
+  <si>
+    <t>"CHTF8" ,</t>
+  </si>
+  <si>
+    <t>"CLSPN" ,</t>
+  </si>
+  <si>
+    <t>"CXorf57" ,</t>
+  </si>
+  <si>
+    <t>"DONSON" ,</t>
+  </si>
+  <si>
+    <t>"DSCC1" ,</t>
+  </si>
+  <si>
+    <t>"ETAA1" ,</t>
+  </si>
+  <si>
+    <t>"FBXO18" ,</t>
+  </si>
+  <si>
+    <t>"HLTF" ,</t>
+  </si>
+  <si>
+    <t>"HMCES" ,</t>
+  </si>
+  <si>
+    <t>"HUS1" ,</t>
+  </si>
+  <si>
+    <t>"MMS22L" ,</t>
+  </si>
+  <si>
+    <t>"POLE3" ,</t>
+  </si>
+  <si>
+    <t>"POLE4" ,</t>
+  </si>
+  <si>
+    <t>"PRIMPOL" ,</t>
+  </si>
+  <si>
+    <t>"RAD1" ,</t>
+  </si>
+  <si>
+    <t>"RAD17" ,</t>
+  </si>
+  <si>
+    <t>"RAD18" ,</t>
+  </si>
+  <si>
+    <t>"RECQL" ,</t>
+  </si>
+  <si>
+    <t>"RECQL5" ,</t>
+  </si>
+  <si>
+    <t>"RHNO1" ,</t>
+  </si>
+  <si>
+    <t>"RNF4" ,</t>
+  </si>
+  <si>
+    <t>"RPA1" ,</t>
+  </si>
+  <si>
+    <t>"RPA2" ,</t>
+  </si>
+  <si>
+    <t>"SAMHD1" ,</t>
+  </si>
+  <si>
+    <t>"SHPRH" ,</t>
+  </si>
+  <si>
+    <t>"SMARCAL1" ,</t>
+  </si>
+  <si>
+    <t>"SPRTN" ,</t>
+  </si>
+  <si>
+    <t>"TICRR" ,</t>
+  </si>
+  <si>
+    <t>"TIPIN" ,</t>
+  </si>
+  <si>
+    <t>"TONSL" ,</t>
+  </si>
+  <si>
+    <t>"TOPBP1" ,</t>
+  </si>
+  <si>
+    <t>"UBE2A" ,</t>
+  </si>
+  <si>
+    <t>"UBE2B" ,</t>
+  </si>
+  <si>
+    <t>"WRN" ,</t>
+  </si>
+  <si>
+    <t>"ZRANB3" ,</t>
+  </si>
+  <si>
+    <t>"RTFDC1" ,</t>
+  </si>
+  <si>
+    <t>"RTEL1" ,</t>
+  </si>
+  <si>
+    <t>"RAD9A" ,</t>
+  </si>
+  <si>
+    <t>"AUNIP" ,</t>
+  </si>
+  <si>
+    <t>"BARD1" ,</t>
+  </si>
+  <si>
+    <t>"BLM" ,</t>
+  </si>
+  <si>
+    <t>"C17orf53" ,</t>
+  </si>
+  <si>
+    <t>"EME1" ,</t>
+  </si>
+  <si>
+    <t>"EXO1" ,</t>
+  </si>
+  <si>
+    <t>"FIGNL1" ,</t>
+  </si>
+  <si>
+    <t>"GEN1" ,</t>
+  </si>
+  <si>
+    <t>"HELQ" ,</t>
+  </si>
+  <si>
+    <t>"MCM8" ,</t>
+  </si>
+  <si>
+    <t>"MCM9" ,</t>
+  </si>
+  <si>
+    <t>"MRE11A" ,</t>
+  </si>
+  <si>
+    <t>"MUS81" ,</t>
+  </si>
+  <si>
+    <t>"NBN" ,</t>
+  </si>
+  <si>
+    <t>"RAD50" ,</t>
+  </si>
+  <si>
+    <t>"RAD51AP1" ,</t>
+  </si>
+  <si>
+    <t>"RAD51B" ,</t>
+  </si>
+  <si>
+    <t>"RAD51D" ,</t>
+  </si>
+  <si>
+    <t>"RAD52" ,</t>
+  </si>
+  <si>
+    <t>"RAD54B" ,</t>
+  </si>
+  <si>
+    <t>"RAD54L" ,</t>
+  </si>
+  <si>
+    <t>"RBBP8" ,</t>
+  </si>
+  <si>
+    <t>"SFR1" ,</t>
+  </si>
+  <si>
+    <t>"SWSAP1" ,</t>
+  </si>
+  <si>
+    <t>"XRCC2" ,</t>
+  </si>
+  <si>
+    <t>"XRCC3" ,</t>
+  </si>
+  <si>
+    <t>"ZSWIM7" ,</t>
+  </si>
+  <si>
+    <t>"RMI1" ,</t>
+  </si>
+  <si>
+    <t>"RMI2" ,</t>
+  </si>
+  <si>
+    <t>"MLH1" ,</t>
+  </si>
+  <si>
+    <t>"MLH3" ,</t>
+  </si>
+  <si>
+    <t>"MSH2" ,</t>
+  </si>
+  <si>
+    <t>"MSH4" ,</t>
+  </si>
+  <si>
+    <t>"MSH5" ,</t>
+  </si>
+  <si>
+    <t>"MSH6" ,</t>
+  </si>
+  <si>
+    <t>"PMS1" ,</t>
+  </si>
+  <si>
+    <t>"PMS2" ,</t>
+  </si>
+  <si>
+    <t>"CETN2" ,</t>
+  </si>
+  <si>
+    <t>"CUL4A" ,</t>
+  </si>
+  <si>
+    <t>"CUL4B" ,</t>
+  </si>
+  <si>
+    <t>"DDB1" ,</t>
+  </si>
+  <si>
+    <t>"ERCC1" ,</t>
+  </si>
+  <si>
+    <t>"ERCC2" ,</t>
+  </si>
+  <si>
+    <t>"ERCC3" ,</t>
+  </si>
+  <si>
+    <t>"ERCC5" ,</t>
+  </si>
+  <si>
+    <t>"ERCC6" ,</t>
+  </si>
+  <si>
+    <t>"ERCC8" ,</t>
+  </si>
+  <si>
+    <t>"GTF2H1" ,</t>
+  </si>
+  <si>
+    <t>"GTF2H4" ,</t>
+  </si>
+  <si>
+    <t>"GTF2H5" ,</t>
+  </si>
+  <si>
+    <t>"RAD23A" ,</t>
+  </si>
+  <si>
+    <t>"RAD23B" ,</t>
+  </si>
+  <si>
+    <t>"USP7" ,</t>
+  </si>
+  <si>
+    <t>"UVSSA" ,</t>
+  </si>
+  <si>
+    <t>"XPA" ,</t>
+  </si>
+  <si>
+    <t>"XPC" ,</t>
+  </si>
+  <si>
+    <t>"C20orf196" ,</t>
+  </si>
+  <si>
+    <t>"C7orf49" ,</t>
+  </si>
+  <si>
+    <t>"C9orf142" ,</t>
+  </si>
+  <si>
+    <t>"CTC-534A2.2" ,</t>
+  </si>
+  <si>
+    <t>"DCLRE1C" ,</t>
+  </si>
+  <si>
+    <t>"FAM35A" ,</t>
+  </si>
+  <si>
+    <t>"H2AFX" ,</t>
+  </si>
+  <si>
+    <t>"LIG4" ,</t>
+  </si>
+  <si>
+    <t>"MAD2L2" ,</t>
+  </si>
+  <si>
+    <t>"MDC1" ,</t>
+  </si>
+  <si>
+    <t>"NHEJ1" ,</t>
+  </si>
+  <si>
+    <t>"POLL" ,</t>
+  </si>
+  <si>
+    <t>"POLM" ,</t>
+  </si>
+  <si>
+    <t>"POLQ" ,</t>
+  </si>
+  <si>
+    <t>"RIF1" ,</t>
+  </si>
+  <si>
+    <t>"RNF168" ,</t>
+  </si>
+  <si>
+    <t>"RNF8" ,</t>
+  </si>
+  <si>
+    <t>"TDP2" ,</t>
+  </si>
+  <si>
+    <t>"TP53BP1" ,</t>
+  </si>
+  <si>
+    <t>"XRCC4" ,</t>
+  </si>
+  <si>
+    <t>"XRCC5" ,</t>
+  </si>
+  <si>
+    <t>"XRCC6" ,</t>
+  </si>
+  <si>
+    <t>"ZNF451" ,</t>
+  </si>
+  <si>
+    <t>"POLD1" ,</t>
+  </si>
+  <si>
+    <t>"POLE" ,</t>
+  </si>
+  <si>
+    <t>"RNASEH2A" ,</t>
+  </si>
+  <si>
+    <t>"RNASEH2B" ,</t>
+  </si>
+  <si>
+    <t>"RNASEH2C" ,</t>
+  </si>
+  <si>
+    <t>"ALKBH3" ,</t>
+  </si>
+  <si>
+    <t>"ASCC1" ,</t>
+  </si>
+  <si>
+    <t>"ASCC3" ,</t>
+  </si>
+  <si>
+    <t>"DCLRE1B" ,</t>
+  </si>
+  <si>
+    <t>"POLH" ,</t>
+  </si>
+  <si>
+    <t>"POLI" ,</t>
+  </si>
+  <si>
+    <t>"POLK" ,</t>
+  </si>
+  <si>
+    <t>"REV1" ,</t>
+  </si>
+  <si>
+    <t>"REV3L" ,</t>
+  </si>
+  <si>
+    <t>"RNF113A" ,</t>
+  </si>
+  <si>
+    <t>"NEIL1" ,</t>
+  </si>
+  <si>
+    <t>"NEIL2" ,</t>
+  </si>
+  <si>
+    <t>"NTHL1" ,</t>
+  </si>
+  <si>
+    <t>"OGG1" ,</t>
+  </si>
+  <si>
+    <t>"PARP2" ,</t>
+  </si>
+  <si>
+    <t>"PARP3" ,</t>
+  </si>
+  <si>
+    <t>"POLN" ,</t>
+  </si>
+  <si>
+    <t>"SMUG1" ,</t>
+  </si>
+  <si>
+    <t>"TDG" ,</t>
+  </si>
+  <si>
+    <t>"UNG" ,</t>
+  </si>
+  <si>
+    <t>"TOP1" ,</t>
+  </si>
+  <si>
+    <t>"MCPH1" ,</t>
+  </si>
+  <si>
+    <t>"BRE" ,</t>
+  </si>
+  <si>
+    <t>"FAM175A" ,</t>
+  </si>
+  <si>
+    <t>"UIMC1" ,</t>
+  </si>
+  <si>
+    <t>"BABAM1" ,</t>
+  </si>
+  <si>
+    <t>"BRCC3"</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1855,10 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1253,10 +1868,7 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1316,9 +1928,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1356,7 +1968,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1462,7 +2074,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1604,7 +2216,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1614,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1626,943 +2238,943 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8" t="s">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8" t="s">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8" t="s">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8" t="s">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8" t="s">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8" t="s">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8" t="s">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8" t="s">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8" t="s">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8" t="s">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8" t="s">
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8" t="s">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8" t="s">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8" t="s">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2570,4 +3182,4489 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC95C09-B1AE-5A49-A917-B77FCF2A65FD}">
+  <dimension ref="A1:E212"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E212"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(A1:D1)</f>
+        <v>"APEX1" ,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E65" si="0">_xlfn.CONCAT(A2:D2)</f>
+        <v>"APEX2" ,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>"APLF" ,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>"APTX" ,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>"FEN1" ,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>"LIG1" ,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>"LIG3" ,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>"PARP1" ,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>"PNKP" ,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>"POLB" ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>"TDP1" ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>"XRCC1" ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>"BOD1L1" ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>"BRCA1" ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>"BRCA2" ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>"BRIP1" ,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>"C17orf70" ,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>"C19orf40" ,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>"C1orf86" ,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>"DCLRE1A" ,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>"ERCC4" ,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>"FAN1" ,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>"FANCA" ,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>"FANCB" ,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>"FANCC" ,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>"FANCD2" ,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>"FANCE" ,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>"FANCF" ,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>"FANCG" ,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>"FANCI" ,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>"FANCL" ,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>"FANCM" ,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>"NEIL3" ,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>"PALB2" ,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>"RAD51" ,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>"RAD51C" ,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>"RFWD3" ,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>"SLX4" ,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>"STRA13" ,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>"TRAIP" ,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>"UBE2T" ,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>"WDR48" ,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>"USP1" ,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>"ATAD5" ,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>"ATR" ,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>"ATRIP" ,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" t="s">
+        <v>208</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>"CHEK1" ,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" t="s">
+        <v>208</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>"CHTF18" ,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>"CHTF8" ,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>"CLSPN" ,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>"CXorf57" ,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" t="s">
+        <v>208</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>"DONSON" ,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>"DSCC1" ,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>"ETAA1" ,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" t="s">
+        <v>208</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>"FBXO18" ,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" t="s">
+        <v>208</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>"HLTF" ,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" t="s">
+        <v>208</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>"HMCES" ,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" t="s">
+        <v>208</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>"HUS1" ,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>"MMS22L" ,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" t="s">
+        <v>208</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>"POLE3" ,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" t="s">
+        <v>208</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>"POLE4" ,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>"PRIMPOL" ,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" t="s">
+        <v>208</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>"RAD1" ,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>"RAD17" ,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" t="s">
+        <v>208</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>"RAD18" ,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" ref="E66:E129" si="1">_xlfn.CONCAT(A66:D66)</f>
+        <v>"RECQL" ,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" t="s">
+        <v>208</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="1"/>
+        <v>"RECQL5" ,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>"RHNO1" ,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" t="s">
+        <v>208</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>"RNF4" ,</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" t="s">
+        <v>208</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>"RPA1" ,</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>207</v>
+      </c>
+      <c r="D71" t="s">
+        <v>208</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>"RPA2" ,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" t="s">
+        <v>208</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>"SAMHD1" ,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" t="s">
+        <v>208</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>"SHPRH" ,</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" t="s">
+        <v>208</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>"SMARCAL1" ,</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" t="s">
+        <v>208</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>"SPRTN" ,</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" t="s">
+        <v>208</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>"TICRR" ,</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" t="s">
+        <v>208</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>"TIPIN" ,</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>207</v>
+      </c>
+      <c r="D78" t="s">
+        <v>208</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>"TONSL" ,</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" t="s">
+        <v>208</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>"TOPBP1" ,</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" t="s">
+        <v>208</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>"UBE2A" ,</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" t="s">
+        <v>208</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>"UBE2B" ,</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" t="s">
+        <v>208</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>"WRN" ,</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>207</v>
+      </c>
+      <c r="D83" t="s">
+        <v>208</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>"ZRANB3" ,</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>207</v>
+      </c>
+      <c r="D84" t="s">
+        <v>208</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>"RTFDC1" ,</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" t="s">
+        <v>208</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>"RTEL1" ,</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C86" t="s">
+        <v>207</v>
+      </c>
+      <c r="D86" t="s">
+        <v>208</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>"RAD9A" ,</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
+        <v>207</v>
+      </c>
+      <c r="D87" t="s">
+        <v>208</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>"AUNIP" ,</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" t="s">
+        <v>208</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>"BARD1" ,</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" t="s">
+        <v>208</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>"BLM" ,</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>207</v>
+      </c>
+      <c r="D90" t="s">
+        <v>208</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>"BRCA1" ,</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" t="s">
+        <v>207</v>
+      </c>
+      <c r="D91" t="s">
+        <v>208</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>"BRCA2" ,</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" t="s">
+        <v>207</v>
+      </c>
+      <c r="D92" t="s">
+        <v>208</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>"BRIP1" ,</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>207</v>
+      </c>
+      <c r="D93" t="s">
+        <v>208</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>"C17orf53" ,</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>207</v>
+      </c>
+      <c r="D94" t="s">
+        <v>208</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v>"EME1" ,</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>207</v>
+      </c>
+      <c r="D95" t="s">
+        <v>208</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>"EXO1" ,</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>207</v>
+      </c>
+      <c r="D96" t="s">
+        <v>208</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v>"FIGNL1" ,</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>207</v>
+      </c>
+      <c r="D97" t="s">
+        <v>208</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v>"GEN1" ,</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>207</v>
+      </c>
+      <c r="D98" t="s">
+        <v>208</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v>"HELQ" ,</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>207</v>
+      </c>
+      <c r="D99" t="s">
+        <v>208</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v>"MCM8" ,</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>207</v>
+      </c>
+      <c r="D100" t="s">
+        <v>208</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="1"/>
+        <v>"MCM9" ,</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>207</v>
+      </c>
+      <c r="D101" t="s">
+        <v>208</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="1"/>
+        <v>"MRE11A" ,</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>207</v>
+      </c>
+      <c r="D102" t="s">
+        <v>208</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="1"/>
+        <v>"MUS81" ,</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>207</v>
+      </c>
+      <c r="D103" t="s">
+        <v>208</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="1"/>
+        <v>"NBN" ,</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" t="s">
+        <v>207</v>
+      </c>
+      <c r="D104" t="s">
+        <v>208</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="1"/>
+        <v>"PALB2" ,</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>207</v>
+      </c>
+      <c r="D105" t="s">
+        <v>208</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="1"/>
+        <v>"RAD50" ,</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106" t="s">
+        <v>208</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="1"/>
+        <v>"RAD51" ,</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" t="s">
+        <v>207</v>
+      </c>
+      <c r="D107" t="s">
+        <v>208</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="1"/>
+        <v>"RAD51AP1" ,</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" t="s">
+        <v>105</v>
+      </c>
+      <c r="C108" t="s">
+        <v>207</v>
+      </c>
+      <c r="D108" t="s">
+        <v>208</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="1"/>
+        <v>"RAD51B" ,</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" t="s">
+        <v>207</v>
+      </c>
+      <c r="D109" t="s">
+        <v>208</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="1"/>
+        <v>"RAD51C" ,</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" t="s">
+        <v>207</v>
+      </c>
+      <c r="D110" t="s">
+        <v>208</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="1"/>
+        <v>"RAD51D" ,</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" t="s">
+        <v>207</v>
+      </c>
+      <c r="D111" t="s">
+        <v>208</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="1"/>
+        <v>"RAD52" ,</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" t="s">
+        <v>207</v>
+      </c>
+      <c r="D112" t="s">
+        <v>208</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="1"/>
+        <v>"RAD54B" ,</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" t="s">
+        <v>207</v>
+      </c>
+      <c r="D113" t="s">
+        <v>208</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="1"/>
+        <v>"RAD54L" ,</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" t="s">
+        <v>110</v>
+      </c>
+      <c r="C114" t="s">
+        <v>207</v>
+      </c>
+      <c r="D114" t="s">
+        <v>208</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="1"/>
+        <v>"RBBP8" ,</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B115" t="s">
+        <v>111</v>
+      </c>
+      <c r="C115" t="s">
+        <v>207</v>
+      </c>
+      <c r="D115" t="s">
+        <v>208</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="1"/>
+        <v>"SFR1" ,</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" t="s">
+        <v>207</v>
+      </c>
+      <c r="D116" t="s">
+        <v>208</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="1"/>
+        <v>"SLX4" ,</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B117" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" t="s">
+        <v>207</v>
+      </c>
+      <c r="D117" t="s">
+        <v>208</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="1"/>
+        <v>"SWSAP1" ,</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B118" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118" t="s">
+        <v>207</v>
+      </c>
+      <c r="D118" t="s">
+        <v>208</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="1"/>
+        <v>"XRCC2" ,</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B119" t="s">
+        <v>114</v>
+      </c>
+      <c r="C119" t="s">
+        <v>207</v>
+      </c>
+      <c r="D119" t="s">
+        <v>208</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="1"/>
+        <v>"XRCC3" ,</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B120" t="s">
+        <v>115</v>
+      </c>
+      <c r="C120" t="s">
+        <v>207</v>
+      </c>
+      <c r="D120" t="s">
+        <v>208</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="1"/>
+        <v>"ZSWIM7" ,</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B121" t="s">
+        <v>195</v>
+      </c>
+      <c r="C121" t="s">
+        <v>207</v>
+      </c>
+      <c r="D121" t="s">
+        <v>208</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="1"/>
+        <v>"RMI1" ,</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B122" t="s">
+        <v>196</v>
+      </c>
+      <c r="C122" t="s">
+        <v>207</v>
+      </c>
+      <c r="D122" t="s">
+        <v>208</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="1"/>
+        <v>"RMI2" ,</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B123" t="s">
+        <v>93</v>
+      </c>
+      <c r="C123" t="s">
+        <v>207</v>
+      </c>
+      <c r="D123" t="s">
+        <v>208</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="1"/>
+        <v>"EXO1" ,</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B124" t="s">
+        <v>117</v>
+      </c>
+      <c r="C124" t="s">
+        <v>207</v>
+      </c>
+      <c r="D124" t="s">
+        <v>208</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="1"/>
+        <v>"MLH1" ,</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B125" t="s">
+        <v>118</v>
+      </c>
+      <c r="C125" t="s">
+        <v>207</v>
+      </c>
+      <c r="D125" t="s">
+        <v>208</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="1"/>
+        <v>"MLH3" ,</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B126" t="s">
+        <v>119</v>
+      </c>
+      <c r="C126" t="s">
+        <v>207</v>
+      </c>
+      <c r="D126" t="s">
+        <v>208</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="1"/>
+        <v>"MSH2" ,</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B127" t="s">
+        <v>120</v>
+      </c>
+      <c r="C127" t="s">
+        <v>207</v>
+      </c>
+      <c r="D127" t="s">
+        <v>208</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="1"/>
+        <v>"MSH4" ,</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B128" t="s">
+        <v>121</v>
+      </c>
+      <c r="C128" t="s">
+        <v>207</v>
+      </c>
+      <c r="D128" t="s">
+        <v>208</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="1"/>
+        <v>"MSH5" ,</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B129" t="s">
+        <v>122</v>
+      </c>
+      <c r="C129" t="s">
+        <v>207</v>
+      </c>
+      <c r="D129" t="s">
+        <v>208</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="1"/>
+        <v>"MSH6" ,</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B130" t="s">
+        <v>123</v>
+      </c>
+      <c r="C130" t="s">
+        <v>207</v>
+      </c>
+      <c r="D130" t="s">
+        <v>208</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" ref="E130:E193" si="2">_xlfn.CONCAT(A130:D130)</f>
+        <v>"PMS1" ,</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B131" t="s">
+        <v>124</v>
+      </c>
+      <c r="C131" t="s">
+        <v>207</v>
+      </c>
+      <c r="D131" t="s">
+        <v>208</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="2"/>
+        <v>"PMS2" ,</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C132" t="s">
+        <v>207</v>
+      </c>
+      <c r="D132" t="s">
+        <v>208</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="2"/>
+        <v>"CETN2" ,</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B133" t="s">
+        <v>126</v>
+      </c>
+      <c r="C133" t="s">
+        <v>207</v>
+      </c>
+      <c r="D133" t="s">
+        <v>208</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="2"/>
+        <v>"CUL4A" ,</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B134" t="s">
+        <v>127</v>
+      </c>
+      <c r="C134" t="s">
+        <v>207</v>
+      </c>
+      <c r="D134" t="s">
+        <v>208</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="2"/>
+        <v>"CUL4B" ,</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B135" t="s">
+        <v>128</v>
+      </c>
+      <c r="C135" t="s">
+        <v>207</v>
+      </c>
+      <c r="D135" t="s">
+        <v>208</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="2"/>
+        <v>"DDB1" ,</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B136" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" t="s">
+        <v>207</v>
+      </c>
+      <c r="D136" t="s">
+        <v>208</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="2"/>
+        <v>"ERCC1" ,</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B137" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137" t="s">
+        <v>207</v>
+      </c>
+      <c r="D137" t="s">
+        <v>208</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="2"/>
+        <v>"ERCC2" ,</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B138" t="s">
+        <v>131</v>
+      </c>
+      <c r="C138" t="s">
+        <v>207</v>
+      </c>
+      <c r="D138" t="s">
+        <v>208</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="2"/>
+        <v>"ERCC3" ,</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" t="s">
+        <v>207</v>
+      </c>
+      <c r="D139" t="s">
+        <v>208</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="2"/>
+        <v>"ERCC4" ,</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B140" t="s">
+        <v>132</v>
+      </c>
+      <c r="C140" t="s">
+        <v>207</v>
+      </c>
+      <c r="D140" t="s">
+        <v>208</v>
+      </c>
+      <c r="E140" t="str">
+        <f t="shared" si="2"/>
+        <v>"ERCC5" ,</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B141" t="s">
+        <v>133</v>
+      </c>
+      <c r="C141" t="s">
+        <v>207</v>
+      </c>
+      <c r="D141" t="s">
+        <v>208</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="2"/>
+        <v>"ERCC6" ,</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B142" t="s">
+        <v>134</v>
+      </c>
+      <c r="C142" t="s">
+        <v>207</v>
+      </c>
+      <c r="D142" t="s">
+        <v>208</v>
+      </c>
+      <c r="E142" t="str">
+        <f t="shared" si="2"/>
+        <v>"ERCC8" ,</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B143" t="s">
+        <v>135</v>
+      </c>
+      <c r="C143" t="s">
+        <v>207</v>
+      </c>
+      <c r="D143" t="s">
+        <v>208</v>
+      </c>
+      <c r="E143" t="str">
+        <f t="shared" si="2"/>
+        <v>"GTF2H1" ,</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B144" t="s">
+        <v>136</v>
+      </c>
+      <c r="C144" t="s">
+        <v>207</v>
+      </c>
+      <c r="D144" t="s">
+        <v>208</v>
+      </c>
+      <c r="E144" t="str">
+        <f t="shared" si="2"/>
+        <v>"GTF2H4" ,</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B145" t="s">
+        <v>137</v>
+      </c>
+      <c r="C145" t="s">
+        <v>207</v>
+      </c>
+      <c r="D145" t="s">
+        <v>208</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="2"/>
+        <v>"GTF2H5" ,</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B146" t="s">
+        <v>138</v>
+      </c>
+      <c r="C146" t="s">
+        <v>207</v>
+      </c>
+      <c r="D146" t="s">
+        <v>208</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="2"/>
+        <v>"RAD23A" ,</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B147" t="s">
+        <v>139</v>
+      </c>
+      <c r="C147" t="s">
+        <v>207</v>
+      </c>
+      <c r="D147" t="s">
+        <v>208</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" si="2"/>
+        <v>"RAD23B" ,</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B148" t="s">
+        <v>140</v>
+      </c>
+      <c r="C148" t="s">
+        <v>207</v>
+      </c>
+      <c r="D148" t="s">
+        <v>208</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" si="2"/>
+        <v>"USP7" ,</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B149" t="s">
+        <v>141</v>
+      </c>
+      <c r="C149" t="s">
+        <v>207</v>
+      </c>
+      <c r="D149" t="s">
+        <v>208</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="2"/>
+        <v>"UVSSA" ,</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B150" t="s">
+        <v>142</v>
+      </c>
+      <c r="C150" t="s">
+        <v>207</v>
+      </c>
+      <c r="D150" t="s">
+        <v>208</v>
+      </c>
+      <c r="E150" t="str">
+        <f t="shared" si="2"/>
+        <v>"XPA" ,</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B151" t="s">
+        <v>143</v>
+      </c>
+      <c r="C151" t="s">
+        <v>207</v>
+      </c>
+      <c r="D151" t="s">
+        <v>208</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="2"/>
+        <v>"XPC" ,</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>207</v>
+      </c>
+      <c r="D152" t="s">
+        <v>208</v>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="2"/>
+        <v>"APLF" ,</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>207</v>
+      </c>
+      <c r="D153" t="s">
+        <v>208</v>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="2"/>
+        <v>"APTX" ,</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B154" t="s">
+        <v>144</v>
+      </c>
+      <c r="C154" t="s">
+        <v>207</v>
+      </c>
+      <c r="D154" t="s">
+        <v>208</v>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" si="2"/>
+        <v>"C20orf196" ,</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B155" t="s">
+        <v>145</v>
+      </c>
+      <c r="C155" t="s">
+        <v>207</v>
+      </c>
+      <c r="D155" t="s">
+        <v>208</v>
+      </c>
+      <c r="E155" t="str">
+        <f t="shared" si="2"/>
+        <v>"C7orf49" ,</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B156" t="s">
+        <v>146</v>
+      </c>
+      <c r="C156" t="s">
+        <v>207</v>
+      </c>
+      <c r="D156" t="s">
+        <v>208</v>
+      </c>
+      <c r="E156" t="str">
+        <f t="shared" si="2"/>
+        <v>"C9orf142" ,</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B157" t="s">
+        <v>147</v>
+      </c>
+      <c r="C157" t="s">
+        <v>207</v>
+      </c>
+      <c r="D157" t="s">
+        <v>208</v>
+      </c>
+      <c r="E157" t="str">
+        <f t="shared" si="2"/>
+        <v>"CTC-534A2.2" ,</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B158" t="s">
+        <v>148</v>
+      </c>
+      <c r="C158" t="s">
+        <v>207</v>
+      </c>
+      <c r="D158" t="s">
+        <v>208</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="2"/>
+        <v>"DCLRE1C" ,</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B159" t="s">
+        <v>149</v>
+      </c>
+      <c r="C159" t="s">
+        <v>207</v>
+      </c>
+      <c r="D159" t="s">
+        <v>208</v>
+      </c>
+      <c r="E159" t="str">
+        <f t="shared" si="2"/>
+        <v>"FAM35A" ,</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B160" t="s">
+        <v>150</v>
+      </c>
+      <c r="C160" t="s">
+        <v>207</v>
+      </c>
+      <c r="D160" t="s">
+        <v>208</v>
+      </c>
+      <c r="E160" t="str">
+        <f t="shared" si="2"/>
+        <v>"H2AFX" ,</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B161" t="s">
+        <v>151</v>
+      </c>
+      <c r="C161" t="s">
+        <v>207</v>
+      </c>
+      <c r="D161" t="s">
+        <v>208</v>
+      </c>
+      <c r="E161" t="str">
+        <f t="shared" si="2"/>
+        <v>"LIG4" ,</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B162" t="s">
+        <v>152</v>
+      </c>
+      <c r="C162" t="s">
+        <v>207</v>
+      </c>
+      <c r="D162" t="s">
+        <v>208</v>
+      </c>
+      <c r="E162" t="str">
+        <f t="shared" si="2"/>
+        <v>"MAD2L2" ,</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B163" t="s">
+        <v>153</v>
+      </c>
+      <c r="C163" t="s">
+        <v>207</v>
+      </c>
+      <c r="D163" t="s">
+        <v>208</v>
+      </c>
+      <c r="E163" t="str">
+        <f t="shared" si="2"/>
+        <v>"MDC1" ,</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B164" t="s">
+        <v>154</v>
+      </c>
+      <c r="C164" t="s">
+        <v>207</v>
+      </c>
+      <c r="D164" t="s">
+        <v>208</v>
+      </c>
+      <c r="E164" t="str">
+        <f t="shared" si="2"/>
+        <v>"NHEJ1" ,</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" t="s">
+        <v>207</v>
+      </c>
+      <c r="D165" t="s">
+        <v>208</v>
+      </c>
+      <c r="E165" t="str">
+        <f t="shared" si="2"/>
+        <v>"PNKP" ,</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B166" t="s">
+        <v>155</v>
+      </c>
+      <c r="C166" t="s">
+        <v>207</v>
+      </c>
+      <c r="D166" t="s">
+        <v>208</v>
+      </c>
+      <c r="E166" t="str">
+        <f t="shared" si="2"/>
+        <v>"POLL" ,</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B167" t="s">
+        <v>156</v>
+      </c>
+      <c r="C167" t="s">
+        <v>207</v>
+      </c>
+      <c r="D167" t="s">
+        <v>208</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="2"/>
+        <v>"POLM" ,</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B168" t="s">
+        <v>116</v>
+      </c>
+      <c r="C168" t="s">
+        <v>207</v>
+      </c>
+      <c r="D168" t="s">
+        <v>208</v>
+      </c>
+      <c r="E168" t="str">
+        <f t="shared" si="2"/>
+        <v>"POLQ" ,</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B169" t="s">
+        <v>157</v>
+      </c>
+      <c r="C169" t="s">
+        <v>207</v>
+      </c>
+      <c r="D169" t="s">
+        <v>208</v>
+      </c>
+      <c r="E169" t="str">
+        <f t="shared" si="2"/>
+        <v>"RIF1" ,</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B170" t="s">
+        <v>158</v>
+      </c>
+      <c r="C170" t="s">
+        <v>207</v>
+      </c>
+      <c r="D170" t="s">
+        <v>208</v>
+      </c>
+      <c r="E170" t="str">
+        <f t="shared" si="2"/>
+        <v>"RNF168" ,</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B171" t="s">
+        <v>159</v>
+      </c>
+      <c r="C171" t="s">
+        <v>207</v>
+      </c>
+      <c r="D171" t="s">
+        <v>208</v>
+      </c>
+      <c r="E171" t="str">
+        <f t="shared" si="2"/>
+        <v>"RNF8" ,</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B172" t="s">
+        <v>160</v>
+      </c>
+      <c r="C172" t="s">
+        <v>207</v>
+      </c>
+      <c r="D172" t="s">
+        <v>208</v>
+      </c>
+      <c r="E172" t="str">
+        <f t="shared" si="2"/>
+        <v>"TDP2" ,</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B173" t="s">
+        <v>161</v>
+      </c>
+      <c r="C173" t="s">
+        <v>207</v>
+      </c>
+      <c r="D173" t="s">
+        <v>208</v>
+      </c>
+      <c r="E173" t="str">
+        <f t="shared" si="2"/>
+        <v>"TP53BP1" ,</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B174" t="s">
+        <v>162</v>
+      </c>
+      <c r="C174" t="s">
+        <v>207</v>
+      </c>
+      <c r="D174" t="s">
+        <v>208</v>
+      </c>
+      <c r="E174" t="str">
+        <f t="shared" si="2"/>
+        <v>"XRCC4" ,</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B175" t="s">
+        <v>163</v>
+      </c>
+      <c r="C175" t="s">
+        <v>207</v>
+      </c>
+      <c r="D175" t="s">
+        <v>208</v>
+      </c>
+      <c r="E175" t="str">
+        <f t="shared" si="2"/>
+        <v>"XRCC5" ,</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B176" t="s">
+        <v>164</v>
+      </c>
+      <c r="C176" t="s">
+        <v>207</v>
+      </c>
+      <c r="D176" t="s">
+        <v>208</v>
+      </c>
+      <c r="E176" t="str">
+        <f t="shared" si="2"/>
+        <v>"XRCC6" ,</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B177" t="s">
+        <v>165</v>
+      </c>
+      <c r="C177" t="s">
+        <v>207</v>
+      </c>
+      <c r="D177" t="s">
+        <v>208</v>
+      </c>
+      <c r="E177" t="str">
+        <f t="shared" si="2"/>
+        <v>"ZNF451" ,</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B178" t="s">
+        <v>93</v>
+      </c>
+      <c r="C178" t="s">
+        <v>207</v>
+      </c>
+      <c r="D178" t="s">
+        <v>208</v>
+      </c>
+      <c r="E178" t="str">
+        <f t="shared" si="2"/>
+        <v>"EXO1" ,</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>207</v>
+      </c>
+      <c r="D179" t="s">
+        <v>208</v>
+      </c>
+      <c r="E179" t="str">
+        <f t="shared" si="2"/>
+        <v>"FEN1" ,</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" t="s">
+        <v>207</v>
+      </c>
+      <c r="D180" t="s">
+        <v>208</v>
+      </c>
+      <c r="E180" t="str">
+        <f t="shared" si="2"/>
+        <v>"LIG1" ,</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B181" t="s">
+        <v>188</v>
+      </c>
+      <c r="C181" t="s">
+        <v>207</v>
+      </c>
+      <c r="D181" t="s">
+        <v>208</v>
+      </c>
+      <c r="E181" t="str">
+        <f t="shared" si="2"/>
+        <v>"POLD1" ,</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B182" t="s">
+        <v>189</v>
+      </c>
+      <c r="C182" t="s">
+        <v>207</v>
+      </c>
+      <c r="D182" t="s">
+        <v>208</v>
+      </c>
+      <c r="E182" t="str">
+        <f t="shared" si="2"/>
+        <v>"POLE" ,</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B183" t="s">
+        <v>190</v>
+      </c>
+      <c r="C183" t="s">
+        <v>207</v>
+      </c>
+      <c r="D183" t="s">
+        <v>208</v>
+      </c>
+      <c r="E183" t="str">
+        <f t="shared" si="2"/>
+        <v>"RNASEH2A" ,</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B184" t="s">
+        <v>191</v>
+      </c>
+      <c r="C184" t="s">
+        <v>207</v>
+      </c>
+      <c r="D184" t="s">
+        <v>208</v>
+      </c>
+      <c r="E184" t="str">
+        <f t="shared" si="2"/>
+        <v>"RNASEH2B" ,</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B185" t="s">
+        <v>192</v>
+      </c>
+      <c r="C185" t="s">
+        <v>207</v>
+      </c>
+      <c r="D185" t="s">
+        <v>208</v>
+      </c>
+      <c r="E185" t="str">
+        <f t="shared" si="2"/>
+        <v>"RNASEH2C" ,</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B186" t="s">
+        <v>166</v>
+      </c>
+      <c r="C186" t="s">
+        <v>207</v>
+      </c>
+      <c r="D186" t="s">
+        <v>208</v>
+      </c>
+      <c r="E186" t="str">
+        <f t="shared" si="2"/>
+        <v>"ALKBH3" ,</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B187" t="s">
+        <v>168</v>
+      </c>
+      <c r="C187" t="s">
+        <v>207</v>
+      </c>
+      <c r="D187" t="s">
+        <v>208</v>
+      </c>
+      <c r="E187" t="str">
+        <f t="shared" si="2"/>
+        <v>"ASCC1" ,</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B188" t="s">
+        <v>169</v>
+      </c>
+      <c r="C188" t="s">
+        <v>207</v>
+      </c>
+      <c r="D188" t="s">
+        <v>208</v>
+      </c>
+      <c r="E188" t="str">
+        <f t="shared" si="2"/>
+        <v>"ASCC3" ,</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B189" t="s">
+        <v>170</v>
+      </c>
+      <c r="C189" t="s">
+        <v>207</v>
+      </c>
+      <c r="D189" t="s">
+        <v>208</v>
+      </c>
+      <c r="E189" t="str">
+        <f t="shared" si="2"/>
+        <v>"DCLRE1B" ,</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B190" t="s">
+        <v>171</v>
+      </c>
+      <c r="C190" t="s">
+        <v>207</v>
+      </c>
+      <c r="D190" t="s">
+        <v>208</v>
+      </c>
+      <c r="E190" t="str">
+        <f t="shared" si="2"/>
+        <v>"POLH" ,</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B191" t="s">
+        <v>172</v>
+      </c>
+      <c r="C191" t="s">
+        <v>207</v>
+      </c>
+      <c r="D191" t="s">
+        <v>208</v>
+      </c>
+      <c r="E191" t="str">
+        <f t="shared" si="2"/>
+        <v>"POLI" ,</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B192" t="s">
+        <v>173</v>
+      </c>
+      <c r="C192" t="s">
+        <v>207</v>
+      </c>
+      <c r="D192" t="s">
+        <v>208</v>
+      </c>
+      <c r="E192" t="str">
+        <f t="shared" si="2"/>
+        <v>"POLK" ,</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B193" t="s">
+        <v>174</v>
+      </c>
+      <c r="C193" t="s">
+        <v>207</v>
+      </c>
+      <c r="D193" t="s">
+        <v>208</v>
+      </c>
+      <c r="E193" t="str">
+        <f t="shared" si="2"/>
+        <v>"REV1" ,</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B194" t="s">
+        <v>175</v>
+      </c>
+      <c r="C194" t="s">
+        <v>207</v>
+      </c>
+      <c r="D194" t="s">
+        <v>208</v>
+      </c>
+      <c r="E194" t="str">
+        <f t="shared" ref="E194:E212" si="3">_xlfn.CONCAT(A194:D194)</f>
+        <v>"REV3L" ,</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195" t="s">
+        <v>176</v>
+      </c>
+      <c r="C195" t="s">
+        <v>207</v>
+      </c>
+      <c r="D195" t="s">
+        <v>208</v>
+      </c>
+      <c r="E195" t="str">
+        <f t="shared" si="3"/>
+        <v>"RNF113A" ,</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B196" t="s">
+        <v>177</v>
+      </c>
+      <c r="C196" t="s">
+        <v>207</v>
+      </c>
+      <c r="D196" t="s">
+        <v>208</v>
+      </c>
+      <c r="E196" t="str">
+        <f t="shared" si="3"/>
+        <v>"NEIL1" ,</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B197" t="s">
+        <v>178</v>
+      </c>
+      <c r="C197" t="s">
+        <v>207</v>
+      </c>
+      <c r="D197" t="s">
+        <v>208</v>
+      </c>
+      <c r="E197" t="str">
+        <f t="shared" si="3"/>
+        <v>"NEIL2" ,</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B198" t="s">
+        <v>179</v>
+      </c>
+      <c r="C198" t="s">
+        <v>207</v>
+      </c>
+      <c r="D198" t="s">
+        <v>208</v>
+      </c>
+      <c r="E198" t="str">
+        <f t="shared" si="3"/>
+        <v>"NTHL1" ,</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B199" t="s">
+        <v>180</v>
+      </c>
+      <c r="C199" t="s">
+        <v>207</v>
+      </c>
+      <c r="D199" t="s">
+        <v>208</v>
+      </c>
+      <c r="E199" t="str">
+        <f t="shared" si="3"/>
+        <v>"OGG1" ,</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B200" t="s">
+        <v>181</v>
+      </c>
+      <c r="C200" t="s">
+        <v>207</v>
+      </c>
+      <c r="D200" t="s">
+        <v>208</v>
+      </c>
+      <c r="E200" t="str">
+        <f t="shared" si="3"/>
+        <v>"PARP2" ,</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B201" t="s">
+        <v>182</v>
+      </c>
+      <c r="C201" t="s">
+        <v>207</v>
+      </c>
+      <c r="D201" t="s">
+        <v>208</v>
+      </c>
+      <c r="E201" t="str">
+        <f t="shared" si="3"/>
+        <v>"PARP3" ,</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202" t="s">
+        <v>183</v>
+      </c>
+      <c r="C202" t="s">
+        <v>207</v>
+      </c>
+      <c r="D202" t="s">
+        <v>208</v>
+      </c>
+      <c r="E202" t="str">
+        <f t="shared" si="3"/>
+        <v>"POLN" ,</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B203" t="s">
+        <v>184</v>
+      </c>
+      <c r="C203" t="s">
+        <v>207</v>
+      </c>
+      <c r="D203" t="s">
+        <v>208</v>
+      </c>
+      <c r="E203" t="str">
+        <f t="shared" si="3"/>
+        <v>"SMUG1" ,</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204" t="s">
+        <v>185</v>
+      </c>
+      <c r="C204" t="s">
+        <v>207</v>
+      </c>
+      <c r="D204" t="s">
+        <v>208</v>
+      </c>
+      <c r="E204" t="str">
+        <f t="shared" si="3"/>
+        <v>"TDG" ,</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205" t="s">
+        <v>186</v>
+      </c>
+      <c r="C205" t="s">
+        <v>207</v>
+      </c>
+      <c r="D205" t="s">
+        <v>208</v>
+      </c>
+      <c r="E205" t="str">
+        <f t="shared" si="3"/>
+        <v>"UNG" ,</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" t="s">
+        <v>194</v>
+      </c>
+      <c r="C206" t="s">
+        <v>207</v>
+      </c>
+      <c r="D206" t="s">
+        <v>208</v>
+      </c>
+      <c r="E206" t="str">
+        <f t="shared" si="3"/>
+        <v>"TOP1" ,</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" t="s">
+        <v>199</v>
+      </c>
+      <c r="C207" t="s">
+        <v>207</v>
+      </c>
+      <c r="D207" t="s">
+        <v>208</v>
+      </c>
+      <c r="E207" t="str">
+        <f t="shared" si="3"/>
+        <v>"MCPH1" ,</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>200</v>
+      </c>
+      <c r="C208" t="s">
+        <v>207</v>
+      </c>
+      <c r="D208" t="s">
+        <v>208</v>
+      </c>
+      <c r="E208" t="str">
+        <f t="shared" si="3"/>
+        <v>"BRE" ,</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>201</v>
+      </c>
+      <c r="C209" t="s">
+        <v>207</v>
+      </c>
+      <c r="D209" t="s">
+        <v>208</v>
+      </c>
+      <c r="E209" t="str">
+        <f t="shared" si="3"/>
+        <v>"FAM175A" ,</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B210" t="s">
+        <v>202</v>
+      </c>
+      <c r="C210" t="s">
+        <v>207</v>
+      </c>
+      <c r="D210" t="s">
+        <v>208</v>
+      </c>
+      <c r="E210" t="str">
+        <f t="shared" si="3"/>
+        <v>"UIMC1" ,</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B211" t="s">
+        <v>203</v>
+      </c>
+      <c r="C211" t="s">
+        <v>207</v>
+      </c>
+      <c r="D211" t="s">
+        <v>208</v>
+      </c>
+      <c r="E211" t="str">
+        <f t="shared" si="3"/>
+        <v>"BABAM1" ,</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B212" t="s">
+        <v>204</v>
+      </c>
+      <c r="C212" t="s">
+        <v>207</v>
+      </c>
+      <c r="D212" t="s">
+        <v>208</v>
+      </c>
+      <c r="E212" t="str">
+        <f t="shared" si="3"/>
+        <v>"BRCC3" ,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FA1B79-8607-4D4B-A950-087A75571FF8}">
+  <dimension ref="A1:HD1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:HD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:212" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M1" t="s">
+        <v>221</v>
+      </c>
+      <c r="N1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S1" t="s">
+        <v>227</v>
+      </c>
+      <c r="T1" t="s">
+        <v>228</v>
+      </c>
+      <c r="U1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V1" t="s">
+        <v>230</v>
+      </c>
+      <c r="W1" t="s">
+        <v>231</v>
+      </c>
+      <c r="X1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>271</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>283</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>285</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>286</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>287</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>288</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>289</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>290</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>291</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>292</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>293</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>294</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>295</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>296</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>297</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>223</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>298</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>299</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>301</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>302</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>303</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>304</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>305</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>306</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>307</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>308</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>242</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>309</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>243</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>310</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>311</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>244</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>312</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>313</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>314</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>315</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>316</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>317</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>246</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>318</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>319</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>320</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>321</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>322</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>323</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>300</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>324</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>325</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>326</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>327</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>328</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>329</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>330</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>331</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>332</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>333</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>334</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>335</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>336</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>337</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>338</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>229</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>339</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>340</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>341</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>342</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>343</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>344</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>345</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>346</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>347</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>348</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>349</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>350</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>211</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>212</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>351</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>352</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>353</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>354</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>355</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>356</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>357</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>358</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>359</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>360</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>361</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>217</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>362</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>363</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>364</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>365</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>366</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>367</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>368</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>369</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>370</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>371</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>372</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>373</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>300</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>213</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>214</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>374</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>375</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>376</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>377</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>378</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>379</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>380</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>381</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>382</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>383</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>384</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>385</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>386</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>387</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>388</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>389</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>390</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>391</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>392</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>393</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>394</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>395</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>396</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>397</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>398</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>399</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>400</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>401</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>402</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>403</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>404</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>